--- a/VIIC Group 5-Copy/Social--Media-Posts.xlsx
+++ b/VIIC Group 5-Copy/Social--Media-Posts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vedat\Desktop\Hochschule\Semester6\RPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vedat\Desktop\Hochschule\Semester6\RPA\Group-05\VIIC Group 5-Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC22EEE-5885-4C4D-B324-C0C14817FD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50F09D1-700E-4CA7-98DB-76533451D53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Post Online</t>
-  </si>
-  <si>
-    <t>Key Words</t>
-  </si>
-  <si>
     <t>Hashtags</t>
   </si>
   <si>
@@ -45,9 +39,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
     <t>Produkt</t>
   </si>
   <si>
@@ -55,6 +46,15 @@
   </si>
   <si>
     <t>Mountainbike</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Postonline</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
                   <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A7EF16-415A-43FA-BF45-8A3CF6414CCB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -344,7 +344,7 @@
                   <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4273D8C1-C7A0-4892-B8C0-33E1EC12E6B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -430,7 +430,7 @@
                   <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717A4D4A-69BC-4155-9F13-83770EF45C1B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -516,7 +516,7 @@
                   <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC435B3-DDEB-4250-8A5E-934E00398225}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -602,7 +602,7 @@
                   <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06088E72-CA56-4272-AA6D-B988AA0629E4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -688,7 +688,7 @@
                   <a14:compatExt spid="_x0000_s1075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6CAA2E7-2FD5-433D-8450-4ED9E44FF1DE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -774,7 +774,7 @@
                   <a14:compatExt spid="_x0000_s1076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF35AC8-1910-45B2-8F2D-84C4CE2FE8EC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -860,7 +860,7 @@
                   <a14:compatExt spid="_x0000_s1077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811AD9F7-997C-453B-9C35-87D01440D051}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -946,7 +946,7 @@
                   <a14:compatExt spid="_x0000_s1078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D0CD59-DA9A-4A4D-BFB5-94B1E9F0A6FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1032,7 +1032,7 @@
                   <a14:compatExt spid="_x0000_s1079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA71309-2E40-402A-B3EA-C6898122309D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1118,7 +1118,7 @@
                   <a14:compatExt spid="_x0000_s1080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC54B918-6893-4EA8-8A46-FC3A488C4E60}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1204,7 +1204,7 @@
                   <a14:compatExt spid="_x0000_s1081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BE52BD-E218-4963-83D7-9807A9FD891B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1290,7 +1290,7 @@
                   <a14:compatExt spid="_x0000_s1082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAD7D34-489B-44FF-BDF2-59EB734CF43D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1376,7 +1376,7 @@
                   <a14:compatExt spid="_x0000_s1083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6334E9B2-72BF-42E1-A73E-D4F4FB88B148}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1462,7 @@
                   <a14:compatExt spid="_x0000_s1084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44EA666-13C8-48D7-9609-96DB112610B8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1793,9 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1810,28 +1808,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1840,10 +1838,10 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>

--- a/VIIC Group 5-Copy/Social--Media-Posts.xlsx
+++ b/VIIC Group 5-Copy/Social--Media-Posts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vedat\Desktop\Hochschule\Semester6\RPA\Group-05\VIIC Group 5-Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50F09D1-700E-4CA7-98DB-76533451D53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B0AE90-B9BC-4905-88AE-800D1E71D70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Hashtags</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Apple iphone 15, 128 GB, Black, Newest Technologie</t>
+  </si>
+  <si>
+    <t>Iphone</t>
   </si>
 </sst>
 </file>
@@ -1793,7 +1799,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1851,8 +1859,12 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>

--- a/VIIC Group 5-Copy/Social--Media-Posts.xlsx
+++ b/VIIC Group 5-Copy/Social--Media-Posts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vedat\Desktop\Hochschule\Semester6\RPA\Group-05\VIIC Group 5-Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B0AE90-B9BC-4905-88AE-800D1E71D70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0E4A81-2DB5-4D98-B16C-7162E1B1F21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="2140" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Hashtags</t>
   </si>
@@ -61,6 +61,50 @@
   </si>
   <si>
     <t>Iphone</t>
+  </si>
+  <si>
+    <t>Natürlich! Hier ist der Text für deinen Social-Media-Post:_x000D_
+_x000D_
+?? **Mountainbike 20 Zoll in Schwarz** ??_x000D_
+_x000D_
+Perfekt für jedes Gelände! ?? Egal ob du durch die Stadt düst oder auf abenteuerlichen Trails unterwegs bist, dieses 20-Zoll-Mountainbike ist dein zuverlässiger Begleiter. Mit seinem robusten Rahmen und den hochwertigen Komponenten bietet es Fahrspaß pur. ??_x000D_
+_x000D_
+Hashtags: #Mountainbike #20Zoll #Schwarz #OutdoorAbenteuer_x000D_
+_x000D_
+Kopiere den Text gerne direkt für deinen Post! ????_x000D_
+_x000D_
+Quelle: Unterhaltung mit Copilot, 24.6.2024_x000D_
+(1) . https://bing.com/search?q=Mountainbike+20+inch+Black+Perfekt+for+Every+Area._x000D_
+(2) Fahrrad-Outlet Greve. https://marktplatz.bike/Prophete._x000D_
+(3) MK ONLINE BIKE SHOP. http://mk-bikeshop.de/kontakt.htm._x000D_
+(4) Bike Park. https://www.bike-park-timm.shop/._x000D_
+(5) Fahrrad MARCKS. https://www.fahrrad-xxl.de/._x000D_
+(6) Kinder Mountainbike 20 Zoll günstig kaufen |Fahrrad XXL. https://www.fahrrad-xxl.de/fahrraeder/kinderfahrraeder/mountainbikes/radgroesse.20-zoll/._x000D_
+(7) Kinder Mountainbike 20 Zoll - Top Auswahl | BIKE24. https://www.bike24.de/radfahren/fahrraeder/kinderfahrraeder/kinder-mountainbikes/f.radgroesse.20-zoll._x000D_
+(8) Top 10 Mountainbikes 20 Zoll Test &amp; Vergleich. https://www.vergleich.org/mountainbike-20-zoll/.</t>
+  </si>
+  <si>
+    <t>Natürlich! Hier ist eine kurze Produktbeschreibung für deinen Social-Media-Post:_x000D_
+_x000D_
+?? **Apple iPhone 15** – Das neueste Smartphone mit fortschrittlicher Technologie! ??_x000D_
+_x000D_
+- **48 MP Hauptkamera**: Beeindruckende Fotos und Videos in höchster Qualität._x000D_
+- **2x Tele-Zoom**: Perfekte Porträts und Details._x000D_
+- **Batterie für den ganzen Tag**: Keine Sorge mehr um leeren Akku._x000D_
+- **USB-C-Anschluss**: Schnelles und flexibles Laden._x000D_
+- **Robustes Design**: Durchgefärbtes Glas und Aluminium._x000D_
+- **Super Retina XDR Display**: Hervorragende Helligkeit, auch bei Sonnenlicht._x000D_
+_x000D_
+Hol dir das iPhone 15 in **Schwarz** mit **128 GB** Speicher – ein echter Allrounder! ??_x000D_
+_x000D_
+#Apple #iPhone15 #NeueTechnologie ¹²³45_x000D_
+_x000D_
+Quelle: Unterhaltung mit Copilot, 24.6.2024_x000D_
+(1) iPhone 15 und iPhone 15 Plus - Apple (DE). https://www.apple.com/de/iphone-15/._x000D_
+(2) Apple iPhone 15 128GB schwarz - Geizhals.de. https://geizhals.de/apple-iphone-15-128gb-schwarz-a3020645.html._x000D_
+(3) Apple iPhone 15 (128GB) - Black : Amazon.de: Electronics &amp; Photo. https://www.amazon.de/-/en/Apple-iPhone-15-128GB-Black/dp/B0CHXFCYCR._x000D_
+(4) iPhone 15 und iPhone 15 Plus - Technische Daten - Apple (DE). https://www.apple.com/de/iphone-15/specs/._x000D_
+(5) iPhone 15 128 GB Schwarz kaufen - Apple (DE). https://www.apple.com/de/shop/buy-iphone/iphone-15/6,1%22-display-128gb-schwarz.</t>
   </si>
 </sst>
 </file>
@@ -155,13 +199,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1799,7 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1840,7 +1887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1851,12 +1898,14 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -1865,7 +1914,9 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>

--- a/VIIC Group 5-Copy/Social--Media-Posts.xlsx
+++ b/VIIC Group 5-Copy/Social--Media-Posts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vedat\Desktop\Hochschule\Semester6\RPA\Group-05\VIIC Group 5-Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FD9BD6-79A4-442D-8162-2CF0612F7CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D46A7E-8CA5-42FE-8DAF-6C1F6DD74971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Platform</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Instagram</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Pfad</t>
   </si>
   <si>
@@ -87,14 +84,26 @@
     <t>Mountain bike R.jpg</t>
   </si>
   <si>
-    <t>Twitter</t>
+    <t>Iphone15.png</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>Pending Posts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posted </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +113,36 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +152,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,21 +213,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -201,6 +256,959 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Posting Status Report</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6345-48D3-838A-5B5AABF6E67F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-6345-48D3-838A-5B5AABF6E67F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5354330708661421E-3"/>
+                  <c:y val="5.2551764362787981E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6345-48D3-838A-5B5AABF6E67F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2176290463692039E-2"/>
+                  <c:y val="6.2554680664916884E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6345-48D3-838A-5B5AABF6E67F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle2!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Pending Posts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Posted </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6345-48D3-838A-5B5AABF6E67F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC7A423-7E60-1738-148D-0867516D411D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,255 +1474,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="78" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" customWidth="1"/>
-    <col min="3" max="3" width="102.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.81640625" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="33.5" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Finished">
+      <formula>NOT(ISERROR(SEARCH("Finished",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78901B9-189D-4502-A69F-19E3A48A0982}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <f>COUNT(Tabelle1!A:A) - B3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <f>COUNTIF(Tabelle1!G:G,"Finished")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <f>COUNTIF(Tabelle1!G:G,"Error")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>